--- a/learnpython/learnP_181129_interface/data.xlsx
+++ b/learnpython/learnP_181129_interface/data.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
@@ -16,119 +16,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectcode</t>
+  </si>
+  <si>
+    <t>actualcode</t>
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>验证key错误</t>
   </si>
   <si>
     <t>http://www.tuling123.com/openapi/api</t>
   </si>
   <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>f8ce4828187949a3ba0926c1c7fff62b1</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>hm</t>
+  </si>
+  <si>
+    <t>验证请求内容info为空</t>
+  </si>
+  <si>
+    <t>f8ce4828187949a3ba0926c1c7fff62b</t>
+  </si>
+  <si>
+    <t>验证返回数据格式-文本</t>
+  </si>
+  <si>
+    <t>昆山天气</t>
+  </si>
+  <si>
+    <t>验证返回数据格式-链接</t>
+  </si>
+  <si>
+    <t>昆山图片</t>
+  </si>
+  <si>
+    <t>验证返回数据格式-新闻</t>
+  </si>
+  <si>
+    <t>今日新闻</t>
+  </si>
+  <si>
+    <t>验证返回数据格式-菜谱</t>
+  </si>
+  <si>
+    <t>水煮肉片怎么做</t>
+  </si>
+  <si>
+    <t>验证当天请求次数已使用完</t>
+  </si>
+  <si>
+    <t>验证数据格式异常</t>
+  </si>
+  <si>
     <t>http://www.tuling123.com/openapi/api</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f8ce4828187949a3ba0926c1c7fff62b</t>
-  </si>
-  <si>
-    <t>f8ce4828187949a3ba0926c1c7fff62b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证key错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证请求内容info为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证数据格式异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证当天请求次数已使用完</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f8ce4828187949a3ba0926c1c7fff62b1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证返回数据格式-文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证返回数据格式-链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证返回数据格式-新闻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证返回数据格式-菜谱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actualcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆山天气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆山图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日新闻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水煮肉片怎么做</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +155,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -473,233 +457,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>40002</v>
+      </c>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>100000</v>
+      </c>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>302000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>308000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>40004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>40001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>40002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>302000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>308000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>40004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9">
+      <c r="H9">
         <v>40007</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
 
@@ -713,7 +732,7 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
 
@@ -727,6 +746,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>